--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4665506666666667</v>
+        <v>1.164924666666667</v>
       </c>
       <c r="H2">
-        <v>1.399652</v>
+        <v>3.494774</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3516043333333334</v>
+        <v>0.2887656666666666</v>
       </c>
       <c r="N2">
-        <v>1.054813</v>
+        <v>0.866297</v>
       </c>
       <c r="O2">
-        <v>0.03544371009754595</v>
+        <v>0.02693956104254192</v>
       </c>
       <c r="P2">
-        <v>0.03544371009754595</v>
+        <v>0.02693956104254193</v>
       </c>
       <c r="Q2">
-        <v>0.1640412361195556</v>
+        <v>0.3363902479864444</v>
       </c>
       <c r="R2">
-        <v>1.476371125076</v>
+        <v>3.027512231878</v>
       </c>
       <c r="S2">
-        <v>0.03544371009754595</v>
+        <v>0.02693956104254192</v>
       </c>
       <c r="T2">
-        <v>0.03544371009754595</v>
+        <v>0.02693956104254193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4665506666666667</v>
+        <v>1.164924666666667</v>
       </c>
       <c r="H3">
-        <v>1.399652</v>
+        <v>3.494774</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>22.116849</v>
       </c>
       <c r="O3">
-        <v>0.743167920974807</v>
+        <v>0.687775905612258</v>
       </c>
       <c r="P3">
-        <v>0.743167920974807</v>
+        <v>0.6877759056122581</v>
       </c>
       <c r="Q3">
-        <v>3.439543548505334</v>
+        <v>8.588154316347332</v>
       </c>
       <c r="R3">
-        <v>30.955891936548</v>
+        <v>77.293388847126</v>
       </c>
       <c r="S3">
-        <v>0.743167920974807</v>
+        <v>0.687775905612258</v>
       </c>
       <c r="T3">
-        <v>0.743167920974807</v>
+        <v>0.6877759056122581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4665506666666667</v>
+        <v>1.164924666666667</v>
       </c>
       <c r="H4">
-        <v>1.399652</v>
+        <v>3.494774</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.196189666666667</v>
+        <v>3.057970333333333</v>
       </c>
       <c r="N4">
-        <v>6.588569</v>
+        <v>9.173911</v>
       </c>
       <c r="O4">
-        <v>0.2213883689276471</v>
+        <v>0.2852845333452001</v>
       </c>
       <c r="P4">
-        <v>0.2213883689276471</v>
+        <v>0.2852845333452002</v>
       </c>
       <c r="Q4">
-        <v>1.024633753109778</v>
+        <v>3.562305071234889</v>
       </c>
       <c r="R4">
-        <v>9.221703777988001</v>
+        <v>32.060745641114</v>
       </c>
       <c r="S4">
-        <v>0.2213883689276471</v>
+        <v>0.2852845333452001</v>
       </c>
       <c r="T4">
-        <v>0.2213883689276471</v>
+        <v>0.2852845333452002</v>
       </c>
     </row>
   </sheetData>
